--- a/legislator/property/output/normal/段宜康_2012-04-24_財產申報表_tmp25ce1.xlsx
+++ b/legislator/property/output/normal/段宜康_2012-04-24_財產申報表_tmp25ce1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="71">
   <si>
     <t>土地坐落</t>
   </si>
@@ -158,6 +158,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>中鋼</t>
   </si>
   <si>
@@ -192,6 +201,9 @@
   </si>
   <si>
     <t>東捷</t>
+  </si>
+  <si>
+    <t>2012-04-24</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1008,13 +1020,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1033,13 +1045,22 @@
       <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1056,13 +1077,22 @@
       <c r="G2" s="2">
         <v>1261690</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1079,13 +1109,22 @@
       <c r="G3" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1102,13 +1141,22 @@
       <c r="G4" s="2">
         <v>353570</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1125,13 +1173,22 @@
       <c r="G5" s="2">
         <v>135210</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1148,13 +1205,22 @@
       <c r="G6" s="2">
         <v>55130</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1171,13 +1237,22 @@
       <c r="G7" s="2">
         <v>50090</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>37</v>
@@ -1194,13 +1269,22 @@
       <c r="G8" s="2">
         <v>150000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>37</v>
@@ -1217,13 +1301,22 @@
       <c r="G9" s="2">
         <v>73140</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>37</v>
@@ -1240,13 +1333,22 @@
       <c r="G10" s="2">
         <v>142500</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>37</v>
@@ -1263,13 +1365,22 @@
       <c r="G11" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>37</v>
@@ -1286,13 +1397,22 @@
       <c r="G12" s="2">
         <v>150000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>37</v>
@@ -1308,6 +1428,15 @@
       </c>
       <c r="G13" s="2">
         <v>600000</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="2">
+        <v>917</v>
       </c>
     </row>
   </sheetData>
@@ -1325,13 +1454,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1339,10 +1468,10 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
@@ -1353,10 +1482,10 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>37</v>
@@ -1367,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
@@ -1381,10 +1510,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
@@ -1395,10 +1524,10 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
@@ -1409,10 +1538,10 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
@@ -1423,10 +1552,10 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>37</v>

--- a/legislator/property/output/normal/段宜康_2012-04-24_財產申報表_tmp25ce1.xlsx
+++ b/legislator/property/output/normal/段宜康_2012-04-24_財產申報表_tmp25ce1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="73">
   <si>
     <t>土地坐落</t>
   </si>
@@ -158,6 +158,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -201,6 +204,9 @@
   </si>
   <si>
     <t>東捷</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-24</t>
@@ -1020,13 +1026,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1054,13 +1060,16 @@
       <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1078,21 +1087,24 @@
         <v>1261690</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="2">
+        <v>63</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2">
         <v>917</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1110,21 +1122,24 @@
         <v>50000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="2">
+        <v>63</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2">
         <v>917</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1142,21 +1157,24 @@
         <v>353570</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="2">
+        <v>63</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2">
         <v>917</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1174,21 +1192,24 @@
         <v>135210</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="2">
+        <v>63</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2">
         <v>917</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1206,21 +1227,24 @@
         <v>55130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="2">
+        <v>63</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2">
         <v>917</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1238,21 +1262,24 @@
         <v>50090</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="2">
+        <v>63</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2">
         <v>917</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>37</v>
@@ -1270,21 +1297,24 @@
         <v>150000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="2">
+        <v>63</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2">
         <v>917</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>37</v>
@@ -1302,21 +1332,24 @@
         <v>73140</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="2">
+        <v>63</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="2">
         <v>917</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>37</v>
@@ -1334,21 +1367,24 @@
         <v>142500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="2">
+        <v>63</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="2">
         <v>917</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>37</v>
@@ -1366,21 +1402,24 @@
         <v>100000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="2">
+        <v>63</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="2">
         <v>917</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>37</v>
@@ -1398,21 +1437,24 @@
         <v>150000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="2">
+        <v>63</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="2">
         <v>917</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>37</v>
@@ -1430,12 +1472,15 @@
         <v>600000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="2">
+        <v>63</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="2">
         <v>917</v>
       </c>
     </row>
@@ -1454,13 +1499,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1468,10 +1513,10 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
@@ -1482,10 +1527,10 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>37</v>
@@ -1496,10 +1541,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
@@ -1510,10 +1555,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
@@ -1524,10 +1569,10 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
@@ -1538,10 +1583,10 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
@@ -1552,10 +1597,10 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>37</v>

--- a/legislator/property/output/normal/段宜康_2012-04-24_財產申報表_tmp25ce1.xlsx
+++ b/legislator/property/output/normal/段宜康_2012-04-24_財產申報表_tmp25ce1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="78">
   <si>
     <t>土地坐落</t>
   </si>
@@ -161,6 +161,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -170,6 +173,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>中鋼</t>
   </si>
   <si>
@@ -209,7 +218,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-24</t>
+  </si>
+  <si>
+    <t>tmp25ce1</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1026,13 +1041,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1063,13 +1078,22 @@
       <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1087,24 +1111,33 @@
         <v>1261690</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="2">
+        <v>67</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2">
         <v>917</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1122,24 +1155,33 @@
         <v>50000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="2">
+        <v>67</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2">
         <v>917</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1157,24 +1199,33 @@
         <v>353570</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="2">
+        <v>67</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="2">
         <v>917</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1192,24 +1243,33 @@
         <v>135210</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="2">
+        <v>67</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="2">
         <v>917</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1227,24 +1287,33 @@
         <v>55130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="2">
+        <v>67</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="2">
         <v>917</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1262,24 +1331,33 @@
         <v>50090</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="2">
+        <v>67</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="2">
         <v>917</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>37</v>
@@ -1297,24 +1375,33 @@
         <v>150000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="2">
+        <v>67</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="2">
         <v>917</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>37</v>
@@ -1332,24 +1419,33 @@
         <v>73140</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="2">
+        <v>67</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="2">
         <v>917</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>37</v>
@@ -1367,24 +1463,33 @@
         <v>142500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="2">
+        <v>67</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="2">
         <v>917</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>37</v>
@@ -1402,24 +1507,33 @@
         <v>100000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="2">
+        <v>67</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="2">
         <v>917</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>37</v>
@@ -1437,24 +1551,33 @@
         <v>150000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="2">
+        <v>67</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="2">
         <v>917</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>37</v>
@@ -1472,16 +1595,25 @@
         <v>600000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="2">
+        <v>67</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="2">
         <v>917</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1499,13 +1631,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1513,10 +1645,10 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
@@ -1527,10 +1659,10 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>37</v>
@@ -1541,10 +1673,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
@@ -1555,10 +1687,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
@@ -1569,10 +1701,10 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
@@ -1583,10 +1715,10 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
@@ -1597,10 +1729,10 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>37</v>

--- a/legislator/property/output/normal/段宜康_2012-04-24_財產申報表_tmp25ce1.xlsx
+++ b/legislator/property/output/normal/段宜康_2012-04-24_財產申報表_tmp25ce1.xlsx
@@ -18,9 +18,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="78">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="82">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市松山區敦化段三小段01690000地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區敦化段二小段01710000地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區敦化段三小段01710001地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區敦化段三小段01910000地號</t>
+  </si>
+  <si>
+    <t>325373之5313</t>
+  </si>
+  <si>
+    <t>陳麗雯</t>
+  </si>
+  <si>
+    <t>89年10月04H</t>
+  </si>
+  <si>
+    <t>89年10月04日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-24</t>
+  </si>
+  <si>
+    <t>段宜康</t>
+  </si>
+  <si>
+    <t>tmp25ce1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,52 +125,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市松山區敦化段三小段 0169-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區敦化段二小段 0171-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區敦化段三小段 0171-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區敦化段三小段 0191-0000 地號</t>
-  </si>
-  <si>
-    <t>325373 之 5313</t>
-  </si>
-  <si>
-    <t>分</t>
-  </si>
-  <si>
-    <t>陳麗雯</t>
-  </si>
-  <si>
-    <t>89年10月 04 H</t>
-  </si>
-  <si>
-    <t>89年10月 04日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市松山區敦化段三小段 01482-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區敦化段三小段 02061-000 建號</t>
+    <t>臺北市松山區敦化段三小段01482000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區敦化段三小段02061000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>1000分之 425</t>
-  </si>
-  <si>
-    <t>89年10月 04闩</t>
+    <t>1000分之425</t>
+  </si>
+  <si>
+    <t>89年10月04闩</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -107,13 +158,13 @@
     <t>臺灣銀行松山分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行光復南 路分行</t>
+    <t>合作金庫商業銀行光復南路分行</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行敦南分 行</t>
+    <t>台北富邦商業銀行敦南分行</t>
   </si>
   <si>
     <t>華南商業銀行忠興分行</t>
@@ -131,19 +182,10 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>段宜康</t>
-  </si>
-  <si>
     <t>段〇</t>
   </si>
   <si>
-    <t>1’300，000</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>1300000</t>
   </si>
   <si>
     <t>quantity</t>
@@ -158,27 +200,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>中鋼</t>
   </si>
   <si>
@@ -216,15 +237,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-24</t>
-  </si>
-  <si>
-    <t>tmp25ce1</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -610,13 +622,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,134 +638,226 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2">
+        <v>122467.14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>917</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2">
-        <v>122467.14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1320</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2">
+        <v>7095863.53</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>917</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2">
-        <v>7095863.53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2">
+        <v>12932.53</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>917</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
       </c>
-      <c r="I4" s="2">
-        <v>12932.53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2">
         <v>32331.32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>917</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -771,25 +875,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -797,22 +901,22 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>141.34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="H2" s="2">
         <v>1269100</v>
@@ -823,22 +927,22 @@
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>912.99</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2">
         <v>177897</v>
@@ -859,19 +963,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -879,16 +983,16 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2">
         <v>350140</v>
@@ -899,16 +1003,16 @@
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2">
         <v>3000000</v>
@@ -919,16 +1023,16 @@
         <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
         <v>313114</v>
@@ -939,16 +1043,16 @@
         <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2">
         <v>347070</v>
@@ -959,19 +1063,19 @@
         <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -979,16 +1083,16 @@
         <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2">
         <v>1300000</v>
@@ -999,16 +1103,16 @@
         <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2">
         <v>829032</v>
@@ -1019,16 +1123,16 @@
         <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2">
         <v>225223</v>
@@ -1049,43 +1153,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1093,10 +1197,10 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>126169</v>
@@ -1105,28 +1209,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2">
         <v>1261690</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2">
         <v>917</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2">
         <v>64</v>
@@ -1137,10 +1241,10 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
         <v>5000</v>
@@ -1149,28 +1253,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2">
         <v>50000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2">
         <v>917</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="N3" s="2">
         <v>65</v>
@@ -1181,10 +1285,10 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>35357</v>
@@ -1193,28 +1297,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2">
         <v>353570</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L4" s="2">
         <v>917</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="N4" s="2">
         <v>66</v>
@@ -1225,10 +1329,10 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>13521</v>
@@ -1237,28 +1341,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2">
         <v>135210</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L5" s="2">
         <v>917</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="N5" s="2">
         <v>67</v>
@@ -1269,10 +1373,10 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>5513</v>
@@ -1281,28 +1385,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2">
         <v>55130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L6" s="2">
         <v>917</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="N6" s="2">
         <v>68</v>
@@ -1313,10 +1417,10 @@
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>5009</v>
@@ -1325,28 +1429,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2">
         <v>50090</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L7" s="2">
         <v>917</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="N7" s="2">
         <v>69</v>
@@ -1357,10 +1461,10 @@
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2">
         <v>15000</v>
@@ -1369,28 +1473,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2">
         <v>150000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L8" s="2">
         <v>917</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="N8" s="2">
         <v>70</v>
@@ -1401,10 +1505,10 @@
         <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>7314</v>
@@ -1413,28 +1517,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G9" s="2">
         <v>73140</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L9" s="2">
         <v>917</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="N9" s="2">
         <v>71</v>
@@ -1445,10 +1549,10 @@
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2">
         <v>14250</v>
@@ -1457,28 +1561,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2">
         <v>142500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L10" s="2">
         <v>917</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="N10" s="2">
         <v>72</v>
@@ -1489,10 +1593,10 @@
         <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2">
         <v>10000</v>
@@ -1501,28 +1605,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2">
         <v>100000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L11" s="2">
         <v>917</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="N11" s="2">
         <v>73</v>
@@ -1533,10 +1637,10 @@
         <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2">
         <v>15000</v>
@@ -1545,28 +1649,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2">
         <v>150000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L12" s="2">
         <v>917</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="N12" s="2">
         <v>74</v>
@@ -1577,10 +1681,10 @@
         <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2">
         <v>60000</v>
@@ -1589,28 +1693,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G13" s="2">
         <v>600000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L13" s="2">
         <v>917</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="N13" s="2">
         <v>75</v>
@@ -1631,13 +1735,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1645,13 +1749,13 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1659,13 +1763,13 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1673,13 +1777,13 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1687,13 +1791,13 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1701,13 +1805,13 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1715,13 +1819,13 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1729,13 +1833,13 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/段宜康_2012-04-24_財產申報表_tmp25ce1.xlsx
+++ b/legislator/property/output/normal/段宜康_2012-04-24_財產申報表_tmp25ce1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市松山區敦化段三小段01690000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市松山區敦化段二小段01710000地號</t>
@@ -80,9 +83,6 @@
     <t>陳麗雯</t>
   </si>
   <si>
-    <t>89年10月04H</t>
-  </si>
-  <si>
     <t>89年10月04日</t>
   </si>
   <si>
@@ -104,60 +104,30 @@
     <t>tmp25ce1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市松山區敦化段三小段01482000建號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>89年10月04闩</t>
+  </si>
+  <si>
     <t>臺北市松山區敦化段三小段02061000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>1000分之425</t>
   </si>
   <si>
-    <t>89年10月04闩</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行松山分行</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行光復南路分行</t>
   </si>
   <si>
@@ -173,15 +143,9 @@
     <t>彰化商業銀行敦化分行</t>
   </si>
   <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>段〇</t>
   </si>
   <si>
@@ -197,12 +161,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>中鋼</t>
-  </si>
-  <si>
     <t>佳能</t>
   </si>
   <si>
@@ -239,22 +197,13 @@
     <t>stock</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>康寧終身壽險</t>
+  </si>
+  <si>
     <t>大都會人壽</t>
-  </si>
-  <si>
-    <t>康寧終身壽險</t>
   </si>
   <si>
     <t>康福終身壽險</t>
@@ -622,13 +571,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,31 +620,37 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>15</v>
+        <v>1320</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="2">
-        <v>122467.14</v>
+        <v>7095863.53</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -716,24 +671,30 @@
         <v>27</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0163289516954388</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>21.5542162379792</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1320</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>21</v>
@@ -742,7 +703,7 @@
         <v>22</v>
       </c>
       <c r="H3" s="2">
-        <v>7095863.53</v>
+        <v>12932.53</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -763,24 +724,30 @@
         <v>27</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0163289516954388</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.0653158067817551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
@@ -789,7 +756,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="2">
-        <v>12932.53</v>
+        <v>32331.32</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -810,54 +777,13 @@
         <v>27</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2">
-        <v>32331.32</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="2">
-        <v>917</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="2">
-        <v>17</v>
+      <c r="P4" s="2">
+        <v>0.0163289516954388</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.310250082213337</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +793,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -877,74 +803,48 @@
       <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>141.34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="H1" s="1">
+        <v>1269100</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
-        <v>141.34</v>
+        <v>912.99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="2">
-        <v>1269100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2">
-        <v>912.99</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2">
         <v>177897</v>
       </c>
     </row>
@@ -955,7 +855,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -963,178 +863,158 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
+      </c>
+      <c r="F1" s="1">
+        <v>350140</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
-        <v>350140</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2">
-        <v>3000000</v>
+        <v>313114</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
-        <v>313114</v>
+        <v>347070</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2">
-        <v>347070</v>
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1300000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2">
-        <v>1300000</v>
+        <v>829032</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="2">
-        <v>829032</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>57</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="2">
         <v>225223</v>
       </c>
     </row>
@@ -1145,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1159,16 +1039,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1194,28 +1074,28 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
-        <v>126169</v>
+        <v>5000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2">
-        <v>1261690</v>
+        <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
@@ -1233,33 +1113,33 @@
         <v>27</v>
       </c>
       <c r="N2" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
-        <v>5000</v>
+        <v>35357</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2">
-        <v>50000</v>
+        <v>353570</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
@@ -1277,33 +1157,33 @@
         <v>27</v>
       </c>
       <c r="N3" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
-        <v>35357</v>
+        <v>13521</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2">
-        <v>353570</v>
+        <v>135210</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>24</v>
@@ -1321,33 +1201,33 @@
         <v>27</v>
       </c>
       <c r="N4" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>13521</v>
+        <v>5513</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2">
-        <v>135210</v>
+        <v>55130</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
@@ -1365,33 +1245,33 @@
         <v>27</v>
       </c>
       <c r="N5" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>5513</v>
+        <v>5009</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2">
-        <v>55130</v>
+        <v>50090</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>24</v>
@@ -1409,33 +1289,33 @@
         <v>27</v>
       </c>
       <c r="N6" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2">
-        <v>5009</v>
+        <v>15000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2">
-        <v>50090</v>
+        <v>150000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>24</v>
@@ -1453,33 +1333,33 @@
         <v>27</v>
       </c>
       <c r="N7" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="2">
-        <v>15000</v>
+        <v>7314</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2">
-        <v>150000</v>
+        <v>73140</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>24</v>
@@ -1497,33 +1377,33 @@
         <v>27</v>
       </c>
       <c r="N8" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="2">
-        <v>7314</v>
+        <v>14250</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2">
-        <v>73140</v>
+        <v>142500</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>24</v>
@@ -1541,33 +1421,33 @@
         <v>27</v>
       </c>
       <c r="N9" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="2">
-        <v>14250</v>
+        <v>10000</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2">
-        <v>142500</v>
+        <v>100000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>24</v>
@@ -1585,33 +1465,33 @@
         <v>27</v>
       </c>
       <c r="N10" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="2">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>24</v>
@@ -1629,33 +1509,33 @@
         <v>27</v>
       </c>
       <c r="N11" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="2">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G12" s="2">
-        <v>150000</v>
+        <v>600000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>24</v>
@@ -1673,50 +1553,6 @@
         <v>27</v>
       </c>
       <c r="N12" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1">
-        <v>75</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2">
-        <v>60000</v>
-      </c>
-      <c r="E13" s="2">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="2">
-        <v>600000</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="2">
-        <v>917</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="2">
         <v>75</v>
       </c>
     </row>
@@ -1727,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1735,24 +1571,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -1760,13 +1596,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -1774,13 +1610,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -1788,13 +1624,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -1802,13 +1638,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -1816,29 +1652,15 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>104</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/legislator/property/output/normal/段宜康_2012-04-24_財產申報表_tmp25ce1.xlsx
+++ b/legislator/property/output/normal/段宜康_2012-04-24_財產申報表_tmp25ce1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市松山區敦化段三小段01690000地號</t>
+  </si>
+  <si>
     <t>臺北市松山區敦化段二小段01710000地號</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
     <t>陳麗雯</t>
   </si>
   <si>
+    <t>89年10月04H</t>
+  </si>
+  <si>
     <t>89年10月04日</t>
   </si>
   <si>
@@ -107,18 +113,18 @@
     <t>臺北市松山區敦化段三小段01482000建號</t>
   </si>
   <si>
+    <t>臺北市松山區敦化段三小段02061000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
+    <t>1000分之425</t>
+  </si>
+  <si>
     <t>89年10月04闩</t>
   </si>
   <si>
-    <t>臺北市松山區敦化段三小段02061000建號</t>
-  </si>
-  <si>
-    <t>1000分之425</t>
-  </si>
-  <si>
     <t>臺灣銀行松山分行</t>
   </si>
   <si>
@@ -159,6 +165,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>中鋼</t>
   </si>
   <si>
     <t>佳能</t>
@@ -571,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -629,160 +638,213 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1320</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2">
-        <v>7095863.53</v>
+        <v>122467.14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M2" s="2">
         <v>917</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>0.0163289516954388</v>
       </c>
       <c r="Q2" s="2">
-        <v>21.5542162379792</v>
+        <v>0.244934275431582</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>1320</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2">
-        <v>12932.53</v>
+        <v>7095863.53</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2">
         <v>917</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.0163289516954388</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.0653158067817551</v>
+        <v>21.5542162379792</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2">
-        <v>32331.32</v>
+        <v>12932.53</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M4" s="2">
         <v>917</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.0163289516954388</v>
       </c>
       <c r="Q4" s="2">
+        <v>0.0653158067817551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2">
+        <v>32331.32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2">
+        <v>917</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0163289516954388</v>
+      </c>
+      <c r="Q5" s="2">
         <v>0.310250082213337</v>
       </c>
     </row>
@@ -793,59 +855,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
         <v>141.34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1">
-        <v>1269100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2">
-        <v>912.99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1269100</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>917</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>141.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2">
+        <v>912.99</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2">
         <v>177897</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>917</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.425</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>388.02075</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +1024,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -863,16 +1032,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1">
         <v>350140</v>
@@ -880,141 +1049,161 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
-        <v>3000000</v>
+        <v>350140</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>313114</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2">
-        <v>347070</v>
+        <v>313114</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="2">
+        <v>347070</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1300000</v>
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2">
-        <v>829032</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2">
+        <v>829032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>57</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2">
         <v>225223</v>
       </c>
     </row>
@@ -1025,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1039,13 +1228,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1074,485 +1263,529 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
-        <v>5000</v>
+        <v>126169</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
-        <v>50000</v>
+        <v>1261690</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2">
         <v>917</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N2" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
-        <v>35357</v>
+        <v>5000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
-        <v>353570</v>
+        <v>50000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2">
         <v>917</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N3" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2">
-        <v>13521</v>
+        <v>35357</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2">
-        <v>135210</v>
+        <v>353570</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2">
         <v>917</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N4" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
-        <v>5513</v>
+        <v>13521</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2">
-        <v>55130</v>
+        <v>135210</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L5" s="2">
         <v>917</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N5" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
-        <v>5009</v>
+        <v>5513</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2">
-        <v>50090</v>
+        <v>55130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" s="2">
         <v>917</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N6" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
-        <v>15000</v>
+        <v>5009</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2">
-        <v>150000</v>
+        <v>50090</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L7" s="2">
         <v>917</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N7" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
-        <v>7314</v>
+        <v>15000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2">
-        <v>73140</v>
+        <v>150000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L8" s="2">
         <v>917</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N8" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
-        <v>14250</v>
+        <v>7314</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2">
-        <v>142500</v>
+        <v>73140</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="2">
         <v>917</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N9" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
-        <v>10000</v>
+        <v>14250</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2">
-        <v>100000</v>
+        <v>142500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L10" s="2">
         <v>917</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N10" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L11" s="2">
         <v>917</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N11" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2">
-        <v>600000</v>
+        <v>150000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L12" s="2">
         <v>917</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>75</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>60000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="2">
+        <v>600000</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="2">
+      <c r="K13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="2">
+        <v>917</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="2">
         <v>75</v>
       </c>
     </row>
@@ -1563,7 +1796,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1571,97 +1804,111 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
+        <v>103</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>104</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
+      <c r="C8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/段宜康_2012-04-24_財產申報表_tmp25ce1.xlsx
+++ b/legislator/property/output/normal/段宜康_2012-04-24_財產申報表_tmp25ce1.xlsx
@@ -9,16 +9,17 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="存款" sheetId="3" r:id="rId3"/>
-    <sheet name="股票" sheetId="4" r:id="rId4"/>
-    <sheet name="保險" sheetId="5" r:id="rId5"/>
+    <sheet name="現金" sheetId="3" r:id="rId3"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="股票" sheetId="5" r:id="rId5"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -125,13 +126,16 @@
     <t>89年10月04闩</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣銀行松山分行</t>
   </si>
   <si>
     <t>綜合存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
   </si>
   <si>
     <t>合作金庫商業銀行光復南路分行</t>
@@ -937,7 +941,7 @@
         <v>1269100</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>26</v>
@@ -990,7 +994,7 @@
         <v>177897</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>26</v>
@@ -1023,6 +1027,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1032,13 +1074,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -1052,13 +1094,13 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1072,13 +1114,13 @@
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1092,13 +1134,13 @@
         <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -1112,13 +1154,13 @@
         <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1132,19 +1174,19 @@
         <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1152,16 +1194,16 @@
         <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2">
         <v>1300000</v>
@@ -1172,13 +1214,13 @@
         <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
@@ -1192,13 +1234,13 @@
         <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -1212,7 +1254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N13"/>
   <sheetViews>
@@ -1228,13 +1270,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1266,7 +1308,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1278,13 +1320,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2">
         <v>1261690</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1310,7 +1352,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1322,13 +1364,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2">
         <v>50000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -1354,7 +1396,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1366,13 +1408,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2">
         <v>353570</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -1398,7 +1440,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1410,13 +1452,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2">
         <v>135210</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1442,7 +1484,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1454,13 +1496,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2">
         <v>55130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>26</v>
@@ -1486,7 +1528,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -1498,13 +1540,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2">
         <v>50090</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>26</v>
@@ -1530,7 +1572,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
@@ -1542,13 +1584,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2">
         <v>150000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>26</v>
@@ -1574,7 +1616,7 @@
         <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
@@ -1586,13 +1628,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2">
         <v>73140</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>26</v>
@@ -1618,7 +1660,7 @@
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>28</v>
@@ -1630,13 +1672,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2">
         <v>142500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>26</v>
@@ -1662,7 +1704,7 @@
         <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>28</v>
@@ -1674,13 +1716,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2">
         <v>100000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>26</v>
@@ -1706,7 +1748,7 @@
         <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
@@ -1718,13 +1760,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="2">
         <v>150000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>26</v>
@@ -1750,7 +1792,7 @@
         <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
@@ -1762,13 +1804,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="2">
         <v>600000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>26</v>
@@ -1794,7 +1836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -1804,10 +1846,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
@@ -1818,10 +1860,10 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
@@ -1832,10 +1874,10 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
@@ -1846,10 +1888,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>28</v>
@@ -1860,10 +1902,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>28</v>
@@ -1874,10 +1916,10 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
@@ -1888,10 +1930,10 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>28</v>
@@ -1902,10 +1944,10 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>28</v>

--- a/legislator/property/output/normal/段宜康_2012-04-24_財產申報表_tmp25ce1.xlsx
+++ b/legislator/property/output/normal/段宜康_2012-04-24_財產申報表_tmp25ce1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -129,46 +129,55 @@
     <t>building</t>
   </si>
   <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
     <t>臺灣銀行松山分行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行光復南路分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行敦南分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行忠興分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行敦化分行</t>
+  </si>
+  <si>
     <t>綜合存款</t>
   </si>
   <si>
-    <t>合作金庫商業銀行光復南路分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行敦南分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行忠興分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行敦化分行</t>
-  </si>
-  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
     <t>段〇</t>
   </si>
   <si>
-    <t>1300000</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>中鋼</t>
@@ -1028,35 +1037,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>120000</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2">
+        <v>917</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1066,41 +1117,62 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1">
-        <v>350140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1108,19 +1180,40 @@
       <c r="F2" s="2">
         <v>350140</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2">
+        <v>917</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1128,19 +1221,40 @@
       <c r="F3" s="2">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2">
+        <v>917</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -1148,19 +1262,40 @@
       <c r="F4" s="2">
         <v>313114</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2">
+        <v>917</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1168,59 +1303,122 @@
       <c r="F5" s="2">
         <v>347070</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2">
+        <v>917</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1300000</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2">
+        <v>917</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2">
         <v>1300000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2">
+        <v>917</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
@@ -1228,25 +1426,67 @@
       <c r="F8" s="2">
         <v>829032</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2">
+        <v>917</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="2">
         <v>225223</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2">
+        <v>917</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1270,13 +1510,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1308,7 +1548,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1320,13 +1560,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
         <v>1261690</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1352,7 +1592,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1364,13 +1604,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
         <v>50000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -1396,7 +1636,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1408,13 +1648,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2">
         <v>353570</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -1440,7 +1680,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1452,13 +1692,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2">
         <v>135210</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1484,7 +1724,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1496,13 +1736,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2">
         <v>55130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>26</v>
@@ -1528,7 +1768,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -1540,13 +1780,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2">
         <v>50090</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>26</v>
@@ -1572,7 +1812,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
@@ -1584,13 +1824,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2">
         <v>150000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>26</v>
@@ -1616,7 +1856,7 @@
         <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
@@ -1628,13 +1868,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2">
         <v>73140</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>26</v>
@@ -1660,7 +1900,7 @@
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>28</v>
@@ -1672,13 +1912,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2">
         <v>142500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>26</v>
@@ -1704,7 +1944,7 @@
         <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>28</v>
@@ -1716,13 +1956,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2">
         <v>100000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>26</v>
@@ -1748,7 +1988,7 @@
         <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
@@ -1760,13 +2000,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2">
         <v>150000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>26</v>
@@ -1792,7 +2032,7 @@
         <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
@@ -1804,13 +2044,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="2">
         <v>600000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>26</v>
@@ -1846,10 +2086,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
@@ -1860,10 +2100,10 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
@@ -1874,10 +2114,10 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
@@ -1888,10 +2128,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>28</v>
@@ -1902,10 +2142,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>28</v>
@@ -1916,10 +2156,10 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
@@ -1930,10 +2170,10 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>28</v>
@@ -1944,10 +2184,10 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>28</v>

--- a/legislator/property/output/normal/段宜康_2012-04-24_財產申報表_tmp25ce1.xlsx
+++ b/legislator/property/output/normal/段宜康_2012-04-24_財產申報表_tmp25ce1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
@@ -219,15 +219,18 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>大都會人壽</t>
+  </si>
+  <si>
     <t>康寧終身壽險</t>
   </si>
   <si>
-    <t>大都會人壽</t>
-  </si>
-  <si>
     <t>康福終身壽險</t>
   </si>
   <si>
@@ -235,6 +238,9 @@
   </si>
   <si>
     <t>好鑫安保險</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2078,108 +2084,255 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2">
+        <v>917</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2">
+        <v>917</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2">
+        <v>917</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2">
+        <v>917</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2">
+        <v>917</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2">
+        <v>917</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>104</v>
       </c>
@@ -2187,10 +2340,31 @@
         <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2">
+        <v>917</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
